--- a/biology/Botanique/Maranthes_corymbosa/Maranthes_corymbosa.xlsx
+++ b/biology/Botanique/Maranthes_corymbosa/Maranthes_corymbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maranthes corymbosa est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maranthes corymbosa est un arbre qui pousse jusqu'à 30 m de haut avec un diamètre de tronc pouvant atteindre 1,5 m. L'écorce lisse est gris-brun. Les fleurs sont roses, teintées de blanc. Les fruits, comestibles, sont ellipsoïdes et mesurent jusqu'à 4 cm de long. Le bois est utilisé localement dans la construction[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maranthes corymbosa est un arbre qui pousse jusqu'à 30 m de haut avec un diamètre de tronc pouvant atteindre 1,5 m. L'écorce lisse est gris-brun. Les fleurs sont roses, teintées de blanc. Les fruits, comestibles, sont ellipsoïdes et mesurent jusqu'à 4 cm de long. Le bois est utilisé localement dans la construction,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[3] : Australie, Brunei, Indonésie, Malaisie, Panama, Singapour, Thaïlande, Timor oriental, États fédérés de Micronésie, Îles Salomon.
-Maranthes corymbosa pousse naturellement en Thaïlande, en Malaisie, aux Îles Salomon, aux Îles Caroline et en Australie[3],[1],[2]. On la trouve également au Panama[3]. Son habitat est constitué de forêts du niveau de la mer jusqu'à 1 500 m d'altitude[1] relevé fréquemment dans la formation de grès d'Angwa[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Australie, Brunei, Indonésie, Malaisie, Panama, Singapour, Thaïlande, Timor oriental, États fédérés de Micronésie, Îles Salomon.
+Maranthes corymbosa pousse naturellement en Thaïlande, en Malaisie, aux Îles Salomon, aux Îles Caroline et en Australie. On la trouve également au Panama. Son habitat est constitué de forêts du niveau de la mer jusqu'à 1 500 m d'altitude relevé fréquemment dans la formation de grès d'Angwa,.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Maranthes corymbosa Blume[6].
-Maranthes corymbosa a pour synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Maranthes corymbosa Blume.
+Maranthes corymbosa a pour synonymes :
 Exitelia corymbosa (Blume) Blume
 Exitelia multiflora (Korth.) Walp.
 Ferolia corymbosa (Blume) Kuntze
@@ -627,9 +645,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique corymbosa dérive du grec ancien κόρυμβος, kórumbos, « grappe de fruit en forme de pyramide », et fait référence aux inflorescences groupées[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique corymbosa dérive du grec ancien κόρυμβος, kórumbos, « grappe de fruit en forme de pyramide », et fait référence aux inflorescences groupées.
 </t>
         </is>
       </c>
